--- a/imports/Quimico.xlsx
+++ b/imports/Quimico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB6CFF4-C13E-4805-8CCC-6847176801B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DCE755-FFB9-434F-AE00-79FE4B8C95E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quimico" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="130">
   <si>
     <t>BD</t>
   </si>
@@ -268,12 +268,6 @@
     <t>Trapear</t>
   </si>
   <si>
-    <t>Sacudir</t>
-  </si>
-  <si>
-    <t>Barrer</t>
-  </si>
-  <si>
     <t>BA</t>
   </si>
   <si>
@@ -283,12 +277,6 @@
     <t>TA</t>
   </si>
   <si>
-    <t>Trastes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vidrios </t>
-  </si>
-  <si>
     <t>Deliux</t>
   </si>
   <si>
@@ -340,9 +328,6 @@
     <t>RE-TA-001</t>
   </si>
   <si>
-    <t>Tallar</t>
-  </si>
-  <si>
     <t>TL</t>
   </si>
   <si>
@@ -421,9 +406,6 @@
     <t>SENALETICA</t>
   </si>
   <si>
-    <t>CO</t>
-  </si>
-  <si>
     <t>BASURA</t>
   </si>
   <si>
@@ -431,6 +413,21 @@
   </si>
   <si>
     <t>unidad_dosis</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SUPERFICIES</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>CONSUMIBLES</t>
+  </si>
+  <si>
+    <t>CN</t>
   </si>
 </sst>
 </file>
@@ -686,7 +683,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1120,7 +1122,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1166,25 +1168,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>61</v>
@@ -1205,13 +1207,13 @@
         <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>44</v>
@@ -1243,13 +1245,13 @@
         <v>30</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>44</v>
@@ -1287,7 +1289,7 @@
         <v>59</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>44</v>
@@ -1296,7 +1298,7 @@
         <v>17</v>
       </c>
       <c r="H5" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>72</v>
@@ -1316,7 +1318,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>16</v>
@@ -1325,7 +1327,7 @@
         <v>59</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>44</v>
@@ -1334,7 +1336,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>73</v>
@@ -1351,7 +1353,7 @@
     </row>
     <row r="7" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>28</v>
@@ -1363,13 +1365,13 @@
         <v>60</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H7" s="12">
         <v>1</v>
@@ -1384,7 +1386,7 @@
         <v>18</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1401,7 +1403,7 @@
         <v>60</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>44</v>
@@ -1439,7 +1441,7 @@
         <v>59</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>44</v>
@@ -1477,7 +1479,7 @@
         <v>59</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>44</v>
@@ -1495,7 +1497,7 @@
         <v>68</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>48</v>
@@ -1515,7 +1517,7 @@
         <v>59</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>44</v>
@@ -1553,7 +1555,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>44</v>
@@ -1574,7 +1576,7 @@
         <v>51</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1591,7 +1593,7 @@
         <v>59</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>44</v>
@@ -1611,7 +1613,7 @@
     </row>
     <row r="14" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>29</v>
@@ -1623,13 +1625,13 @@
         <v>59</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H14" s="12">
         <v>1</v>
@@ -1643,10 +1645,10 @@
     </row>
     <row r="15" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>14</v>
@@ -1655,7 +1657,7 @@
         <v>59</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>44</v>
@@ -1787,46 +1789,46 @@
     <mergeCell ref="L1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A14">
-    <cfRule type="duplicateValues" dxfId="19" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:M12">
-    <cfRule type="duplicateValues" dxfId="6" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1835,10 +1837,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1849,9 +1851,11 @@
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
     <col min="8" max="11" width="11.3984375" customWidth="1"/>
     <col min="12" max="12" width="6.73046875" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1873,12 +1877,8 @@
         <v>8</v>
       </c>
       <c r="N1" s="28"/>
-      <c r="P1" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="28"/>
-    </row>
-    <row r="2" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1889,13 +1889,13 @@
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>21</v>
@@ -1904,13 +1904,13 @@
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>22</v>
@@ -1918,16 +1918,10 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>52</v>
@@ -1936,46 +1930,40 @@
         <v>25</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E3" s="9">
         <v>1000</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="8" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>38</v>
@@ -1984,19 +1972,19 @@
         <v>8</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E4" s="9">
         <v>1000</v>
       </c>
       <c r="F4" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="H4" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>26</v>
@@ -2005,25 +1993,19 @@
         <v>1</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="9" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>39</v>
@@ -2032,46 +2014,40 @@
         <v>20</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E5" s="9">
         <v>4000</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>75</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J5" s="5">
         <v>1</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="8" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>36</v>
@@ -2080,91 +2056,79 @@
         <v>50</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E6" s="9">
         <v>1000</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J6" s="5">
         <v>1</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="8" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C7" s="9">
         <v>4</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E7" s="9">
         <v>1000</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J7" s="5">
         <v>1</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2175,19 +2139,13 @@
       <c r="J8" s="20"/>
       <c r="K8" s="2"/>
       <c r="M8" s="8" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2197,14 +2155,14 @@
       <c r="I9" s="6"/>
       <c r="J9" s="20"/>
       <c r="K9" s="2"/>
-      <c r="P9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q9" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M9" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2215,19 +2173,33 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="P10" s="9" t="s">
+      <c r="M10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M12" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="N12" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="18" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="19" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2269,29 +2241,31 @@
     <row r="55" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="56" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="P1:Q1"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="M1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N8">
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  <conditionalFormatting sqref="N3:N8 N10">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q8 Q10">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2302,8 +2276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2329,23 +2303,23 @@
     </row>
     <row r="3" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>75</v>
@@ -2353,18 +2327,18 @@
     </row>
     <row r="6" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/imports/Quimico.xlsx
+++ b/imports/Quimico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DCE755-FFB9-434F-AE00-79FE4B8C95E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F859832D-13A8-429A-9EE4-324E54A686EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quimico" sheetId="4" r:id="rId1"/>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1839,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2276,7 +2276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
